--- a/BalanceInfo/Balance Design 2.3b14.xlsx
+++ b/BalanceInfo/Balance Design 2.3b14.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="471">
   <si>
     <t>2.3 Players Patch Balance Design</t>
   </si>
@@ -579,9 +579,6 @@
   </si>
   <si>
     <t>hw1c was per hub, hwr is fixed health no matter how many hubs</t>
-  </si>
-  <si>
-    <t>Tai version had more health in hw1c. One of the very few race differences in core stats.</t>
   </si>
   <si>
     <t>hw1c Cost</t>
@@ -1932,7 +1929,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1954,7 +1951,7 @@
         <v>43897</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,7 +1962,7 @@
         <v>42531</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,17 +2005,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B4">
         <v>3100</v>
@@ -2026,7 +2023,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5">
         <v>4700</v>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6">
         <v>2450</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7">
         <v>5250</v>
@@ -2050,7 +2047,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B4:B7)</f>
@@ -2059,12 +2056,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B11">
         <v>3100</v>
@@ -2072,7 +2069,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12">
         <v>4700</v>
@@ -2080,7 +2077,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B13">
         <v>2450</v>
@@ -2088,7 +2085,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14">
         <v>5250</v>
@@ -2096,7 +2093,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B15">
         <f>AVERAGE(B11:B14)</f>
@@ -2105,12 +2102,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B18">
         <v>4250</v>
@@ -2118,7 +2115,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B19">
         <v>5850</v>
@@ -2126,7 +2123,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B20">
         <v>3600</v>
@@ -2134,7 +2131,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B21">
         <v>6800</v>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B22">
         <f>AVERAGE(B18:B21)</f>
@@ -2151,12 +2148,12 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B25">
         <v>3300</v>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B26">
         <v>6400</v>
@@ -2172,7 +2169,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B27">
         <v>3250</v>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28">
         <v>8250</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B29">
         <f>AVERAGE(B25:B28)</f>
@@ -2197,12 +2194,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B32">
         <v>8100</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B33">
         <v>11200</v>
@@ -2218,7 +2215,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B34">
         <v>9500</v>
@@ -2226,7 +2223,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B35">
         <v>12500</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B36">
         <f>AVERAGE(B32:B35)</f>
@@ -2273,25 +2270,25 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5615,25 +5612,25 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,7 +9213,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>12</v>
@@ -9225,13 +9222,13 @@
         <v>11</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -13743,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -16646,12 +16643,8 @@
       <c r="A131" t="s">
         <v>145</v>
       </c>
-      <c r="B131" s="28">
-        <v>14000</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>179</v>
-      </c>
+      <c r="B131" s="28"/>
+      <c r="C131" s="31"/>
       <c r="D131" s="28">
         <v>7000</v>
       </c>
@@ -17525,21 +17518,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="10">
         <f>450/5</f>
@@ -17555,7 +17548,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="10">
         <f>625/3</f>
@@ -17571,7 +17564,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="10">
         <v>700</v>
@@ -17586,7 +17579,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="10">
         <v>2000</v>
@@ -17601,7 +17594,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B6" s="10">
         <v>4000</v>
@@ -17616,21 +17609,21 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="10">
         <v>7</v>
@@ -17645,7 +17638,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="10">
         <f>45/3</f>
@@ -17661,7 +17654,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="10">
         <v>45</v>
@@ -17676,7 +17669,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="10">
         <f>165/1.3</f>
@@ -17692,7 +17685,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="10">
         <f>280/1.3</f>
@@ -17708,22 +17701,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>189</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>190</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G15" s="15" t="s">
         <v>12</v>
@@ -17731,7 +17724,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -17757,7 +17750,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17">
         <v>25</v>
@@ -17783,7 +17776,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18">
         <v>60</v>
@@ -17809,7 +17802,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19">
         <v>150</v>
@@ -17835,7 +17828,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20">
         <v>420</v>
@@ -17878,38 +17871,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -17928,7 +17921,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -17947,33 +17940,33 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -17995,7 +17988,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -18014,33 +18007,33 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -18062,7 +18055,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -18084,33 +18077,33 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -18138,7 +18131,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -18191,46 +18184,46 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I1" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>471</v>
-      </c>
       <c r="K1" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>14</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="O1">
         <v>1</v>
@@ -18247,10 +18240,10 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s">
         <v>288</v>
-      </c>
-      <c r="B2" t="s">
-        <v>289</v>
       </c>
       <c r="C2" s="10">
         <v>75</v>
@@ -18292,10 +18285,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" t="s">
-        <v>287</v>
       </c>
       <c r="C3" s="10">
         <v>126</v>
@@ -18337,10 +18330,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
         <v>280</v>
-      </c>
-      <c r="B4" t="s">
-        <v>281</v>
       </c>
       <c r="C4" s="10">
         <v>300</v>
@@ -18382,10 +18375,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C5" s="10">
         <v>300</v>
@@ -18427,10 +18420,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="10">
         <v>402</v>
@@ -18472,10 +18465,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C7" s="10">
         <v>401</v>
@@ -18517,10 +18510,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" t="s">
         <v>278</v>
-      </c>
-      <c r="B8" t="s">
-        <v>279</v>
       </c>
       <c r="C8" s="10">
         <v>75</v>
@@ -18562,10 +18555,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
         <v>276</v>
-      </c>
-      <c r="B9" t="s">
-        <v>277</v>
       </c>
       <c r="C9" s="10">
         <v>200</v>
@@ -18607,10 +18600,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B10" t="s">
         <v>294</v>
-      </c>
-      <c r="B10" t="s">
-        <v>295</v>
       </c>
       <c r="C10" s="10">
         <v>250</v>
@@ -18652,10 +18645,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
         <v>284</v>
-      </c>
-      <c r="B11" t="s">
-        <v>285</v>
       </c>
       <c r="C11" s="10">
         <v>302</v>
@@ -18697,10 +18690,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" t="s">
         <v>300</v>
-      </c>
-      <c r="B12" t="s">
-        <v>301</v>
       </c>
       <c r="C12" s="10">
         <v>300</v>
@@ -18742,10 +18735,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" t="s">
         <v>272</v>
-      </c>
-      <c r="B13" t="s">
-        <v>273</v>
       </c>
       <c r="C13" s="10">
         <v>100</v>
@@ -18787,10 +18780,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" t="s">
         <v>270</v>
-      </c>
-      <c r="B14" t="s">
-        <v>271</v>
       </c>
       <c r="C14" s="10">
         <v>322</v>
@@ -18832,10 +18825,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B15" t="s">
         <v>298</v>
-      </c>
-      <c r="B15" t="s">
-        <v>299</v>
       </c>
       <c r="C15" s="10">
         <v>450</v>
@@ -18877,10 +18870,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" t="s">
         <v>282</v>
-      </c>
-      <c r="B16" t="s">
-        <v>283</v>
       </c>
       <c r="C16" s="10">
         <v>402</v>
@@ -18922,10 +18915,10 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B17" t="s">
         <v>319</v>
-      </c>
-      <c r="B17" t="s">
-        <v>320</v>
       </c>
       <c r="C17" s="10">
         <v>402</v>
@@ -18967,10 +18960,10 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" t="s">
         <v>304</v>
-      </c>
-      <c r="B18" t="s">
-        <v>305</v>
       </c>
       <c r="C18" s="10">
         <v>450</v>
@@ -19012,10 +19005,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
         <v>306</v>
-      </c>
-      <c r="B19" t="s">
-        <v>307</v>
       </c>
       <c r="C19" s="10">
         <v>250</v>
@@ -19057,10 +19050,10 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" t="s">
         <v>292</v>
-      </c>
-      <c r="B20" t="s">
-        <v>293</v>
       </c>
       <c r="C20" s="10">
         <v>300</v>
@@ -19102,10 +19095,10 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" t="s">
         <v>296</v>
-      </c>
-      <c r="B21" t="s">
-        <v>297</v>
       </c>
       <c r="C21" s="10">
         <v>650</v>
@@ -19147,10 +19140,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" t="s">
         <v>290</v>
-      </c>
-      <c r="B22" t="s">
-        <v>291</v>
       </c>
       <c r="C22" s="10">
         <v>522</v>
@@ -19192,10 +19185,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="10">
         <v>521</v>
@@ -19237,10 +19230,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C24" s="10">
         <v>102</v>
@@ -19282,10 +19275,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C25" s="10">
         <v>400</v>
@@ -19327,10 +19320,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
         <v>209</v>
-      </c>
-      <c r="B26" t="s">
-        <v>210</v>
       </c>
       <c r="E26">
         <v>800</v>
@@ -19354,10 +19347,10 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27">
         <v>400</v>
@@ -19381,10 +19374,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" t="s">
         <v>212</v>
-      </c>
-      <c r="B28" t="s">
-        <v>213</v>
       </c>
       <c r="E28">
         <v>1000</v>
@@ -19408,10 +19401,10 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29">
         <v>600</v>
@@ -19435,10 +19428,10 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B30" t="s">
         <v>215</v>
-      </c>
-      <c r="B30" t="s">
-        <v>216</v>
       </c>
       <c r="E30">
         <v>1500</v>
@@ -19462,10 +19455,10 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E31">
         <v>600</v>
@@ -19489,10 +19482,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s">
         <v>218</v>
-      </c>
-      <c r="B32" t="s">
-        <v>219</v>
       </c>
       <c r="E32">
         <v>1500</v>
@@ -19516,10 +19509,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33">
         <v>1800</v>
@@ -19543,10 +19536,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34">
         <v>600</v>
@@ -19570,10 +19563,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" t="s">
         <v>222</v>
-      </c>
-      <c r="B35" t="s">
-        <v>223</v>
       </c>
       <c r="E35">
         <v>1500</v>
@@ -19597,10 +19590,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36">
         <v>1000</v>
@@ -19624,10 +19617,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E37">
         <v>600</v>
@@ -19651,10 +19644,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B38" t="s">
         <v>226</v>
-      </c>
-      <c r="B38" t="s">
-        <v>227</v>
       </c>
       <c r="E38">
         <v>1500</v>
@@ -19678,10 +19671,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
         <v>228</v>
-      </c>
-      <c r="B39" t="s">
-        <v>229</v>
       </c>
       <c r="E39">
         <v>1500</v>
@@ -19705,10 +19698,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E40">
         <v>600</v>
@@ -19732,10 +19725,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E41">
         <v>1500</v>
@@ -19759,10 +19752,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E42">
         <v>500</v>
@@ -19786,10 +19779,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B43" t="s">
         <v>233</v>
-      </c>
-      <c r="B43" t="s">
-        <v>234</v>
       </c>
       <c r="E43">
         <v>750</v>
@@ -19813,10 +19806,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" t="s">
         <v>235</v>
-      </c>
-      <c r="B44" t="s">
-        <v>236</v>
       </c>
       <c r="E44">
         <v>800</v>
@@ -19840,10 +19833,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" t="s">
         <v>237</v>
-      </c>
-      <c r="B45" t="s">
-        <v>238</v>
       </c>
       <c r="E45">
         <v>1000</v>
@@ -19867,10 +19860,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
         <v>239</v>
-      </c>
-      <c r="B46" t="s">
-        <v>240</v>
       </c>
       <c r="E46">
         <v>800</v>
@@ -19894,10 +19887,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" t="s">
         <v>241</v>
-      </c>
-      <c r="B47" t="s">
-        <v>242</v>
       </c>
       <c r="E47">
         <v>1000</v>
@@ -19921,10 +19914,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E48">
         <v>600</v>
@@ -19948,10 +19941,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
         <v>244</v>
-      </c>
-      <c r="B49" t="s">
-        <v>245</v>
       </c>
       <c r="E49">
         <v>800</v>
@@ -19975,10 +19968,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" t="s">
         <v>246</v>
-      </c>
-      <c r="B50" t="s">
-        <v>247</v>
       </c>
       <c r="E50">
         <v>1000</v>
@@ -20002,10 +19995,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E51">
         <v>1000</v>
@@ -20029,10 +20022,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52">
         <v>600</v>
@@ -20056,10 +20049,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E53">
         <v>600</v>
@@ -20083,10 +20076,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
         <v>251</v>
-      </c>
-      <c r="B54" t="s">
-        <v>252</v>
       </c>
       <c r="E54">
         <v>1000</v>
@@ -20110,10 +20103,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E55">
         <v>600</v>
@@ -20137,10 +20130,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56" t="s">
         <v>254</v>
-      </c>
-      <c r="B56" t="s">
-        <v>255</v>
       </c>
       <c r="E56">
         <v>750</v>
@@ -20164,10 +20157,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57">
         <v>800</v>
@@ -20191,10 +20184,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" t="s">
         <v>257</v>
-      </c>
-      <c r="B58" t="s">
-        <v>258</v>
       </c>
       <c r="E58">
         <v>400</v>
@@ -20218,10 +20211,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
         <v>259</v>
-      </c>
-      <c r="B59" t="s">
-        <v>260</v>
       </c>
       <c r="E59">
         <v>1500</v>
@@ -20245,10 +20238,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E60">
         <v>500</v>
@@ -20272,10 +20265,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61" t="s">
         <v>262</v>
-      </c>
-      <c r="B61" t="s">
-        <v>263</v>
       </c>
       <c r="E61">
         <v>500</v>
@@ -20299,10 +20292,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
         <v>264</v>
-      </c>
-      <c r="B62" t="s">
-        <v>265</v>
       </c>
       <c r="E62">
         <v>1000</v>
@@ -20326,10 +20319,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E63">
         <v>1000</v>
@@ -20353,10 +20346,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E64">
         <v>600</v>
@@ -20380,10 +20373,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E65">
         <v>1000</v>
@@ -20407,10 +20400,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E66">
         <v>600</v>
@@ -20434,10 +20427,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>307</v>
+      </c>
+      <c r="B67" t="s">
         <v>308</v>
-      </c>
-      <c r="B67" t="s">
-        <v>309</v>
       </c>
       <c r="E67">
         <v>1400</v>
@@ -20461,10 +20454,10 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" t="s">
         <v>310</v>
-      </c>
-      <c r="B68" t="s">
-        <v>311</v>
       </c>
       <c r="E68">
         <v>800</v>
@@ -20488,10 +20481,10 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E69">
         <v>800</v>
@@ -20515,10 +20508,10 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
         <v>313</v>
-      </c>
-      <c r="B70" t="s">
-        <v>314</v>
       </c>
       <c r="E70">
         <v>900</v>
@@ -20542,10 +20535,10 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>314</v>
+      </c>
+      <c r="B71" t="s">
         <v>315</v>
-      </c>
-      <c r="B71" t="s">
-        <v>316</v>
       </c>
       <c r="E71">
         <v>800</v>
@@ -20569,10 +20562,10 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>316</v>
+      </c>
+      <c r="B72" t="s">
         <v>317</v>
-      </c>
-      <c r="B72" t="s">
-        <v>318</v>
       </c>
       <c r="E72">
         <v>400</v>
@@ -20596,10 +20589,10 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" t="s">
         <v>322</v>
-      </c>
-      <c r="B73" t="s">
-        <v>323</v>
       </c>
       <c r="E73">
         <v>700</v>
@@ -20623,10 +20616,10 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" t="s">
         <v>324</v>
-      </c>
-      <c r="B74" t="s">
-        <v>325</v>
       </c>
       <c r="E74">
         <v>200</v>
@@ -20650,10 +20643,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75" t="s">
         <v>326</v>
-      </c>
-      <c r="B75" t="s">
-        <v>327</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -20677,10 +20670,10 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>327</v>
+      </c>
+      <c r="B76" t="s">
         <v>328</v>
-      </c>
-      <c r="B76" t="s">
-        <v>329</v>
       </c>
       <c r="E76">
         <v>500</v>
@@ -20704,10 +20697,10 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>329</v>
+      </c>
+      <c r="B77" t="s">
         <v>330</v>
-      </c>
-      <c r="B77" t="s">
-        <v>331</v>
       </c>
       <c r="E77">
         <v>1400</v>
@@ -20731,10 +20724,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>331</v>
+      </c>
+      <c r="B78" t="s">
         <v>332</v>
-      </c>
-      <c r="B78" t="s">
-        <v>333</v>
       </c>
       <c r="E78">
         <v>600</v>
@@ -20758,10 +20751,10 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" t="s">
         <v>334</v>
-      </c>
-      <c r="B79" t="s">
-        <v>335</v>
       </c>
       <c r="E79">
         <v>5500</v>
@@ -20785,10 +20778,10 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" t="s">
         <v>336</v>
-      </c>
-      <c r="B80" t="s">
-        <v>337</v>
       </c>
       <c r="E80">
         <v>1000</v>
@@ -20812,10 +20805,10 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" t="s">
         <v>338</v>
-      </c>
-      <c r="B81" t="s">
-        <v>339</v>
       </c>
       <c r="E81">
         <v>700</v>
@@ -20839,10 +20832,10 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E82">
         <v>250</v>
@@ -20866,10 +20859,10 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E83">
         <v>350</v>
@@ -20893,10 +20886,10 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>341</v>
+      </c>
+      <c r="B84" t="s">
         <v>342</v>
-      </c>
-      <c r="B84" t="s">
-        <v>343</v>
       </c>
       <c r="E84">
         <v>1300</v>
@@ -20920,10 +20913,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" t="s">
         <v>344</v>
-      </c>
-      <c r="B85" t="s">
-        <v>345</v>
       </c>
       <c r="E85">
         <v>1900</v>
@@ -20947,10 +20940,10 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" t="s">
         <v>346</v>
-      </c>
-      <c r="B86" t="s">
-        <v>347</v>
       </c>
       <c r="E86">
         <v>2500</v>
@@ -20974,10 +20967,10 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" t="s">
         <v>348</v>
-      </c>
-      <c r="B87" t="s">
-        <v>349</v>
       </c>
       <c r="E87">
         <v>1500</v>
@@ -21001,10 +20994,10 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B88" t="s">
         <v>350</v>
-      </c>
-      <c r="B88" t="s">
-        <v>351</v>
       </c>
       <c r="E88">
         <v>1500</v>
@@ -21028,10 +21021,10 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" t="s">
         <v>352</v>
-      </c>
-      <c r="B89" t="s">
-        <v>353</v>
       </c>
       <c r="E89">
         <v>500</v>
@@ -21055,10 +21048,10 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" t="s">
         <v>354</v>
-      </c>
-      <c r="B90" t="s">
-        <v>355</v>
       </c>
       <c r="E90">
         <v>1500</v>
@@ -21082,10 +21075,10 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" t="s">
         <v>356</v>
-      </c>
-      <c r="B91" t="s">
-        <v>357</v>
       </c>
       <c r="E91">
         <v>1600</v>
@@ -21109,10 +21102,10 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" t="s">
         <v>358</v>
-      </c>
-      <c r="B92" t="s">
-        <v>359</v>
       </c>
       <c r="E92">
         <v>500</v>
@@ -21136,10 +21129,10 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E93">
         <v>1000</v>
@@ -21163,10 +21156,10 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E94">
         <v>500</v>
@@ -21190,10 +21183,10 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" t="s">
         <v>362</v>
-      </c>
-      <c r="B95" t="s">
-        <v>363</v>
       </c>
       <c r="E95">
         <v>2000</v>
@@ -21217,10 +21210,10 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B96" t="s">
         <v>364</v>
-      </c>
-      <c r="B96" t="s">
-        <v>365</v>
       </c>
       <c r="E96">
         <v>1200</v>
@@ -21244,10 +21237,10 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B97" t="s">
         <v>366</v>
-      </c>
-      <c r="B97" t="s">
-        <v>367</v>
       </c>
       <c r="E97">
         <v>500</v>
@@ -21271,10 +21264,10 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B98" t="s">
         <v>368</v>
-      </c>
-      <c r="B98" t="s">
-        <v>369</v>
       </c>
       <c r="E98">
         <v>2000</v>
@@ -21298,10 +21291,10 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B99" t="s">
         <v>370</v>
-      </c>
-      <c r="B99" t="s">
-        <v>371</v>
       </c>
       <c r="E99">
         <v>1000</v>
@@ -21325,10 +21318,10 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B100" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E100">
         <v>1200</v>
@@ -21352,10 +21345,10 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B101" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E101">
         <v>1800</v>
@@ -21379,10 +21372,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" t="s">
         <v>374</v>
-      </c>
-      <c r="B102" t="s">
-        <v>375</v>
       </c>
       <c r="E102">
         <v>750</v>
@@ -21406,10 +21399,10 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B103" t="s">
         <v>376</v>
-      </c>
-      <c r="B103" t="s">
-        <v>377</v>
       </c>
       <c r="E103">
         <v>250</v>
@@ -21433,10 +21426,10 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>377</v>
+      </c>
+      <c r="B104" t="s">
         <v>378</v>
-      </c>
-      <c r="B104" t="s">
-        <v>379</v>
       </c>
       <c r="E104">
         <v>1000</v>
@@ -21460,10 +21453,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B105" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E105">
         <v>250</v>
@@ -21487,10 +21480,10 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>380</v>
+      </c>
+      <c r="B106" t="s">
         <v>381</v>
-      </c>
-      <c r="B106" t="s">
-        <v>382</v>
       </c>
       <c r="E106">
         <v>1500</v>
@@ -21514,10 +21507,10 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" t="s">
         <v>383</v>
-      </c>
-      <c r="B107" t="s">
-        <v>384</v>
       </c>
       <c r="E107">
         <v>1200</v>
@@ -21541,10 +21534,10 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>384</v>
+      </c>
+      <c r="B108" t="s">
         <v>385</v>
-      </c>
-      <c r="B108" t="s">
-        <v>386</v>
       </c>
       <c r="E108">
         <v>500</v>
@@ -21568,10 +21561,10 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" t="s">
         <v>387</v>
-      </c>
-      <c r="B109" t="s">
-        <v>388</v>
       </c>
       <c r="E109">
         <v>800</v>
@@ -21595,10 +21588,10 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>388</v>
+      </c>
+      <c r="B110" t="s">
         <v>389</v>
-      </c>
-      <c r="B110" t="s">
-        <v>390</v>
       </c>
       <c r="E110">
         <v>500</v>
@@ -21622,10 +21615,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" t="s">
         <v>391</v>
-      </c>
-      <c r="B111" t="s">
-        <v>392</v>
       </c>
       <c r="E111">
         <v>1500</v>
@@ -21649,10 +21642,10 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" t="s">
         <v>393</v>
-      </c>
-      <c r="B112" t="s">
-        <v>394</v>
       </c>
       <c r="E112">
         <v>1000</v>
@@ -21676,10 +21669,10 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>394</v>
+      </c>
+      <c r="B113" t="s">
         <v>395</v>
-      </c>
-      <c r="B113" t="s">
-        <v>396</v>
       </c>
       <c r="E113">
         <v>3000</v>
@@ -21703,10 +21696,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B114" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E114">
         <v>1500</v>
@@ -21730,10 +21723,10 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>397</v>
+      </c>
+      <c r="B115" t="s">
         <v>398</v>
-      </c>
-      <c r="B115" t="s">
-        <v>399</v>
       </c>
       <c r="E115">
         <v>1200</v>
@@ -21783,19 +21776,19 @@
         <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -21807,7 +21800,7 @@
         <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -21824,7 +21817,7 @@
         <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -21835,7 +21828,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -21856,7 +21849,7 @@
         <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -21868,7 +21861,7 @@
         <v>260</v>
       </c>
       <c r="F9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -21880,7 +21873,7 @@
         <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -21926,7 +21919,7 @@
         <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -21938,7 +21931,7 @@
         <v>225</v>
       </c>
       <c r="F19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -21955,7 +21948,7 @@
         <v>225</v>
       </c>
       <c r="F21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -21972,7 +21965,7 @@
         <v>248</v>
       </c>
       <c r="F23" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -22002,7 +21995,7 @@
         <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -22052,7 +22045,7 @@
         <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -22077,7 +22070,7 @@
         <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -22093,7 +22086,7 @@
         <v>108</v>
       </c>
       <c r="F38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -22113,7 +22106,7 @@
         <v>197</v>
       </c>
       <c r="F39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -22129,7 +22122,7 @@
         <v>151</v>
       </c>
       <c r="F40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -22160,7 +22153,7 @@
         <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -22180,7 +22173,7 @@
         <v>381</v>
       </c>
       <c r="F45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -22270,7 +22263,7 @@
         <v>219</v>
       </c>
       <c r="F60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -22304,7 +22297,7 @@
         <v>162</v>
       </c>
       <c r="F63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -22324,7 +22317,7 @@
         <v>636</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -22340,7 +22333,7 @@
         <v>80</v>
       </c>
       <c r="F65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -22360,7 +22353,7 @@
         <v>247</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -22380,7 +22373,7 @@
         <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -22400,7 +22393,7 @@
         <v>211</v>
       </c>
       <c r="F68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -22420,7 +22413,7 @@
         <v>282</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -22448,7 +22441,7 @@
         <v>169</v>
       </c>
       <c r="F71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -22532,7 +22525,7 @@
         <v>141</v>
       </c>
       <c r="F83" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -22568,7 +22561,7 @@
         <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -22629,7 +22622,7 @@
         <v>151</v>
       </c>
       <c r="F93" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -22657,7 +22650,7 @@
         <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -22973,7 +22966,7 @@
         <v>208</v>
       </c>
       <c r="F134" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -22990,7 +22983,7 @@
         <v>63</v>
       </c>
       <c r="F136" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -23001,7 +22994,7 @@
         <v>70</v>
       </c>
       <c r="F137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -23013,7 +23006,7 @@
         <v>160</v>
       </c>
       <c r="F138" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -23030,7 +23023,7 @@
         <v>169</v>
       </c>
       <c r="F140" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -23042,7 +23035,7 @@
         <v>180</v>
       </c>
       <c r="F141" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -23059,7 +23052,7 @@
         <v>222</v>
       </c>
       <c r="F143" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -23070,7 +23063,7 @@
         <v>45</v>
       </c>
       <c r="F144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -23082,7 +23075,7 @@
         <v>63</v>
       </c>
       <c r="F145" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -23094,7 +23087,7 @@
         <v>160</v>
       </c>
       <c r="F146" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -23106,7 +23099,7 @@
         <v>188</v>
       </c>
       <c r="F147" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -23118,7 +23111,7 @@
         <v>118</v>
       </c>
       <c r="F148" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
